--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2A3DB-82B7-4D17-8758-DAAE3875E47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA2373-A13F-4E8B-936A-F49819566C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -101,19 +101,19 @@
     <t>Inputs_RefMan\*.txt</t>
   </si>
   <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Inputs_Master\*.txt</t>
+  </si>
+  <si>
+    <t>Master page.</t>
+  </si>
+  <si>
     <t>Inputs_Guide\*.txt</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>Inputs_Master\*.txt</t>
-  </si>
-  <si>
-    <t>Master page.</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="A11:XFD11 D12:E12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,16 +514,16 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA2373-A13F-4E8B-936A-F49819566C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168BE02-3FA4-466E-897F-DDCAFAB7389F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168BE02-3FA4-466E-897F-DDCAFAB7389F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB860F46-BA60-46F6-9073-6AF04FB55B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -47,73 +47,73 @@
     <t>Condition</t>
   </si>
   <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Users Guide</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>system info[user name] = "Zur Bonsen Georg"</t>
+  </si>
+  <si>
+    <t>Reference Manual (intro only)</t>
+  </si>
+  <si>
+    <t>Intended for faster compilations (no code descriptions included)</t>
+  </si>
+  <si>
+    <t>/Home/...</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Name to include if user name is different or OS is different</t>
+  </si>
+  <si>
+    <t>C:/Users/Zur Bonsen Georg/Documents/Programme/georgzurbonsen.github.io/</t>
+  </si>
+  <si>
+    <t>Outputs/</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>First match after condition counts</t>
+  </si>
+  <si>
+    <t>Files and Paths</t>
+  </si>
+  <si>
+    <t>This row specifies the destination path.  Conclude with slash.</t>
+  </si>
+  <si>
+    <t>Inputs_RefMan\*.txt</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Inputs_Master\*.txt</t>
+  </si>
+  <si>
+    <t>Master page.</t>
+  </si>
+  <si>
+    <t>Inputs_Guide\*.txt</t>
+  </si>
+  <si>
     <t>C:\Users\Zur Bonsen Georg\source\repos\Beyond4P_Code\F*.cpp</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Users Guide</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>system info[user name] = "Zur Bonsen Georg"</t>
-  </si>
-  <si>
-    <t>Reference Manual (intro only)</t>
-  </si>
-  <si>
-    <t>Intended for faster compilations (no code descriptions included)</t>
-  </si>
-  <si>
-    <t>/Home/...</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Name to include if user name is different or OS is different</t>
-  </si>
-  <si>
-    <t>C:/Users/Zur Bonsen Georg/Documents/Programme/georgzurbonsen.github.io/</t>
-  </si>
-  <si>
-    <t>Outputs/</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>First match after condition counts</t>
-  </si>
-  <si>
-    <t>Files and Paths</t>
-  </si>
-  <si>
-    <t>This row specifies the destination path.  Conclude with slash.</t>
-  </si>
-  <si>
-    <t>Inputs_RefMan\*.txt</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>Inputs_Master\*.txt</t>
-  </si>
-  <si>
-    <t>Master page.</t>
-  </si>
-  <si>
-    <t>Inputs_Guide\*.txt</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,30 +500,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -534,51 +534,51 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -589,33 +589,33 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB860F46-BA60-46F6-9073-6AF04FB55B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4274F2-64C5-487B-AE0A-36749A38E3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -113,7 +113,7 @@
     <t>Inputs_Guide\*.txt</t>
   </si>
   <si>
-    <t>C:\Users\Zur Bonsen Georg\source\repos\Beyond4P_Code\F*.cpp</t>
+    <t>C:\Users\Zur Bonsen Georg\source\repos\Beyond4P_Code\F010*.cpp</t>
   </si>
 </sst>
 </file>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4274F2-64C5-487B-AE0A-36749A38E3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7D15F-978B-43C9-B0CF-13AEB787A74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -113,7 +113,7 @@
     <t>Inputs_Guide\*.txt</t>
   </si>
   <si>
-    <t>C:\Users\Zur Bonsen Georg\source\repos\Beyond4P_Code\F010*.cpp</t>
+    <t>C:\Users\Zur Bonsen Georg\source\repos\Beyond4P_Code\F0*.cpp</t>
   </si>
 </sst>
 </file>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F7D15F-978B-43C9-B0CF-13AEB787A74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F269DC22-D6D5-478B-A2E9-139C360BEF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F269DC22-D6D5-478B-A2E9-139C360BEF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01592A9-F56C-4E11-AD74-1DACD1723122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01592A9-F56C-4E11-AD74-1DACD1723122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5153FDB-A70D-4F2B-A4A5-1BCEE143485F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5153FDB-A70D-4F2B-A4A5-1BCEE143485F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4655368-0CAA-4127-8ED7-B29EA070335A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Reference Manual</t>
   </si>
@@ -68,33 +68,15 @@
     <t>Intended for faster compilations (no code descriptions included)</t>
   </si>
   <si>
-    <t>/Home/...</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Name to include if user name is different or OS is different</t>
-  </si>
-  <si>
     <t>C:/Users/Zur Bonsen Georg/Documents/Programme/georgzurbonsen.github.io/</t>
   </si>
   <si>
-    <t>Outputs/</t>
-  </si>
-  <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>First match after condition counts</t>
-  </si>
-  <si>
     <t>Files and Paths</t>
   </si>
   <si>
-    <t>This row specifies the destination path.  Conclude with slash.</t>
-  </si>
-  <si>
     <t>Inputs_RefMan\*.txt</t>
   </si>
   <si>
@@ -114,6 +96,21 @@
   </si>
   <si>
     <t>C:\Users\Zur Bonsen Georg\source\repos\Beyond4P_Code\F0*.cpp</t>
+  </si>
+  <si>
+    <t>/home/georg/B4P_Docu_Maker/Outputs</t>
+  </si>
+  <si>
+    <t>system info[user name] = "georg"</t>
+  </si>
+  <si>
+    <t>On Windows</t>
+  </si>
+  <si>
+    <t>On LINUX</t>
+  </si>
+  <si>
+    <t>/home/georg/Beyond4P_Code/F0*.cpp</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -514,16 +511,16 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -534,26 +531,29 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -589,33 +589,36 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4655368-0CAA-4127-8ED7-B29EA070335A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5B761-8961-4AD8-BBF8-5E0D7F15A2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>C:\Users\Zur Bonsen Georg\source\repos\Beyond4P_Code\F0*.cpp</t>
   </si>
   <si>
-    <t>/home/georg/B4P_Docu_Maker/Outputs</t>
-  </si>
-  <si>
     <t>system info[user name] = "georg"</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>/home/georg/Beyond4P_Code/F0*.cpp</t>
+  </si>
+  <si>
+    <t>/home/georg/B4P_Docu_Maker/Outputs/</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,18 +542,18 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5B761-8961-4AD8-BBF8-5E0D7F15A2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8675917-DE3D-43C1-B317-913D8AB844A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8675917-DE3D-43C1-B317-913D8AB844A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5FDB8C-9D2E-46DB-BA39-C5712E15BD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
+    <workbookView xWindow="240" yWindow="1560" windowWidth="28560" windowHeight="14055" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -134,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,11 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -476,7 +484,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G11" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,10 +619,10 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/b4p-rmr/B4P_Docu_Maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5FDB8C-9D2E-46DB-BA39-C5712E15BD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7277CAA-51F3-E140-A225-359ADE5D1188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1560" windowWidth="28560" windowHeight="14055" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
+    <workbookView xWindow="760" yWindow="1560" windowWidth="28560" windowHeight="14060" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Reference Manual</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>/home/georg/B4P_Docu_Maker/Outputs/</t>
+  </si>
+  <si>
+    <t>system info[user name] = "rafael"</t>
+  </si>
+  <si>
+    <t>On MacOS</t>
+  </si>
+  <si>
+    <t>/Users/rafael/b4p-rmr/B4P_Docu_Maker/Outputs</t>
   </si>
 </sst>
 </file>
@@ -169,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -185,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,23 +490,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B7C470-6B5E-4007-81C9-49EE72D9A7A6}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:G11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="62.5" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -517,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -531,7 +540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -542,7 +551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -553,7 +562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
@@ -564,7 +573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -578,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -589,13 +598,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -612,7 +621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -627,6 +636,23 @@
       </c>
       <c r="G11" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/b4p-rmr/B4P_Docu_Maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7277CAA-51F3-E140-A225-359ADE5D1188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA28EF-355D-7B42-AEEF-49A892AC7D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1560" windowWidth="28560" windowHeight="14060" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>On MacOS</t>
   </si>
   <si>
-    <t>/Users/rafael/b4p-rmr/B4P_Docu_Maker/Outputs</t>
+    <t>/Users/rafael/b4p-rmr/B4P_Docu_Maker/OUTPUT/</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/b4p-rmr/B4P_Docu_Maker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA28EF-355D-7B42-AEEF-49A892AC7D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF327549-A650-4C0D-8A26-1BAE44C52CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1560" windowWidth="28560" windowHeight="14060" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
-  <si>
-    <t>Reference Manual</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Book Title</t>
   </si>
@@ -41,9 +38,6 @@
     <t>Abbreviation</t>
   </si>
   <si>
-    <t>REF</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -62,12 +56,6 @@
     <t>system info[user name] = "Zur Bonsen Georg"</t>
   </si>
   <si>
-    <t>Reference Manual (intro only)</t>
-  </si>
-  <si>
-    <t>Intended for faster compilations (no code descriptions included)</t>
-  </si>
-  <si>
     <t>C:/Users/Zur Bonsen Georg/Documents/Programme/georgzurbonsen.github.io/</t>
   </si>
   <si>
@@ -120,6 +108,24 @@
   </si>
   <si>
     <t>/Users/rafael/b4p-rmr/B4P_Docu_Maker/OUTPUT/</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>Inputs_Library\*.txt</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>Function Library Guide</t>
+  </si>
+  <si>
+    <t>Language Guide</t>
+  </si>
+  <si>
+    <t>Main TOC Order</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,169 +496,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B7C470-6B5E-4007-81C9-49EE72D9A7A6}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="62.5" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H12" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF327549-A650-4C0D-8A26-1BAE44C52CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1D45D-0D32-4C6D-92E6-623E35A02A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Book Title</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Files and Paths</t>
   </si>
   <si>
-    <t>Inputs_RefMan\*.txt</t>
-  </si>
-  <si>
     <t>MAS</t>
   </si>
   <si>
@@ -126,6 +123,12 @@
   </si>
   <si>
     <t>Main TOC Order</t>
+  </si>
+  <si>
+    <t>Inputs_Index\*.txt</t>
+  </si>
+  <si>
+    <t>Inputs_Language\*.txt</t>
   </si>
 </sst>
 </file>
@@ -496,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B7C470-6B5E-4007-81C9-49EE72D9A7A6}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -537,19 +540,19 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -563,21 +566,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -585,76 +579,63 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-    </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -663,14 +644,48 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
         <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1D45D-0D32-4C6D-92E6-623E35A02A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D7304E-D8ED-4C08-B5AF-0BA4F5052372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Users Guide</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Inputs_Language\*.txt</t>
+  </si>
+  <si>
+    <t>User Guide</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -540,98 +540,98 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -639,53 +639,53 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/gzb/B4P_Docu_Maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D7304E-D8ED-4C08-B5AF-0BA4F5052372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E17EE09-0289-7848-AEBF-1A5D2A0BDCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
+    <workbookView xWindow="1320" yWindow="620" windowWidth="26100" windowHeight="15580" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Book Title</t>
   </si>
@@ -101,9 +101,6 @@
     <t>On MacOS</t>
   </si>
   <si>
-    <t>/Users/rafael/b4p-rmr/B4P_Docu_Maker/OUTPUT/</t>
-  </si>
-  <si>
     <t>LIB</t>
   </si>
   <si>
@@ -129,13 +126,19 @@
   </si>
   <si>
     <t>User Guide</t>
+  </si>
+  <si>
+    <t>/Users/rafael/cpp/Beyond4P_Code/F0*.cpp</t>
+  </si>
+  <si>
+    <t>/Users/rafael/b4p/B4P_Docu_Maker/Outputs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +154,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,16 +194,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,23 +519,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B7C470-6B5E-4007-81C9-49EE72D9A7A6}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="62.5" customWidth="1"/>
+    <col min="6" max="6" width="41.5" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -538,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -555,9 +575,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -569,122 +589,133 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>16</v>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/gzb/B4P_Docu_Maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E17EE09-0289-7848-AEBF-1A5D2A0BDCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB68E540-1F94-4E42-8FCE-93BD5A5FA7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="620" windowWidth="26100" windowHeight="15580" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
+    <workbookView xWindow="1320" yWindow="620" windowWidth="32140" windowHeight="10940" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -131,14 +131,14 @@
     <t>/Users/rafael/cpp/Beyond4P_Code/F0*.cpp</t>
   </si>
   <si>
-    <t>/Users/rafael/b4p/B4P_Docu_Maker/Outputs</t>
+    <t>/Users/rafael/b4p/B4P_Docu_Maker/Outputs/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +150,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,14 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
@@ -522,7 +514,7 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,13 +647,13 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -692,10 +684,10 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/gzb/B4P_Docu_Maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB68E540-1F94-4E42-8FCE-93BD5A5FA7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="620" windowWidth="32140" windowHeight="10940" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -197,6 +197,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,14 +520,15 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="62.5" customWidth="1"/>
     <col min="6" max="6" width="41.5" customWidth="1"/>
     <col min="8" max="8" width="28.1640625" customWidth="1"/>
@@ -534,7 +541,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -557,7 +564,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -574,7 +581,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -593,7 +600,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -612,7 +619,7 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/gzb/B4P_Docu_Maker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5444515566c7376a/Documents/Programme/Beyond4P/B4P_Docu_Maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{238B9C80-F288-45D6-82DD-A6CCC2B1C9D4}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="620" windowWidth="32140" windowHeight="10940" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>GUI</t>
   </si>
   <si>
-    <t>system info[user name] = "Zur Bonsen Georg"</t>
-  </si>
-  <si>
-    <t>C:/Users/Zur Bonsen Georg/Documents/Programme/georgzurbonsen.github.io/</t>
-  </si>
-  <si>
     <t>Destination</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Inputs_Guide\*.txt</t>
   </si>
   <si>
-    <t>C:\Users\Zur Bonsen Georg\source\repos\Beyond4P_Code\F0*.cpp</t>
-  </si>
-  <si>
     <t>system info[user name] = "georg"</t>
   </si>
   <si>
@@ -132,6 +123,15 @@
   </si>
   <si>
     <t>/Users/rafael/b4p/B4P_Docu_Maker/Outputs/</t>
+  </si>
+  <si>
+    <t>C:\Users\zur-b\source\repos\Beyond4P_Code\F0*.cpp</t>
+  </si>
+  <si>
+    <t>system info[user name] = "zur-b"</t>
+  </si>
+  <si>
+    <t>C:/Users/zur-b/OneDrive/Documents/Programme/georgzurbonsen.github.io/</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -520,21 +520,21 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="62.5" customWidth="1"/>
-    <col min="6" max="6" width="41.5" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -557,26 +557,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="10">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -585,137 +585,137 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E9" s="2" t="s">
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E10" s="3" t="s">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5444515566c7376a/Documents/Programme/Beyond4P/B4P_Docu_Maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{238B9C80-F288-45D6-82DD-A6CCC2B1C9D4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1555775-66EE-453A-B9E5-8DD94AAE2623}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Function Library Guide</t>
   </si>
   <si>
-    <t>Language Guide</t>
-  </si>
-  <si>
     <t>Main TOC Order</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Inputs_Language\*.txt</t>
   </si>
   <si>
-    <t>User Guide</t>
-  </si>
-  <si>
     <t>/Users/rafael/cpp/Beyond4P_Code/F0*.cpp</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>C:/Users/zur-b/OneDrive/Documents/Programme/georgzurbonsen.github.io/</t>
+  </si>
+  <si>
+    <t>B4P Language</t>
+  </si>
+  <si>
+    <t>B4P Anlytics Engine</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -590,12 +590,12 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -604,12 +604,12 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -628,15 +628,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>18</v>
@@ -675,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>18</v>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5444515566c7376a/Documents/Programme/Beyond4P/B4P_Docu_Maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5C3772A-B699-4E70-8C47-C04D6418529D}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A576DE3F-9328-43DF-8AF8-8ADA65B070C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Book Title</t>
   </si>
@@ -98,9 +98,6 @@
     <t>LAN</t>
   </si>
   <si>
-    <t>Function Library Guide</t>
-  </si>
-  <si>
     <t>Main TOC Order</t>
   </si>
   <si>
@@ -125,13 +122,25 @@
     <t>C:/Users/zur-b/OneDrive/Documents/Programme/georgzurbonsen.github.io/</t>
   </si>
   <si>
-    <t>B4P Language</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
     <t>User Guide</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>Inputs_Tables\*.txt</t>
+  </si>
+  <si>
+    <t>Function Library</t>
+  </si>
+  <si>
+    <t>Language Guide</t>
+  </si>
+  <si>
+    <t>Table Processing</t>
   </si>
 </sst>
 </file>
@@ -221,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,7 +270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -367,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B7C470-6B5E-4007-81C9-49EE72D9A7A6}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -559,7 +568,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -575,146 +584,170 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="8" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H18" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5444515566c7376a/Documents/Programme/Beyond4P/B4P_Docu_Maker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5444515566c7376a/Documents/Programme/B4P/b4p-docu-maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A576DE3F-9328-43DF-8AF8-8ADA65B070C8}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{B8246BD0-AB28-B246-8A82-ED27F370C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C6342A-6231-466F-9A0B-E30C04AD7498}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{3D6CAE77-ACA1-4461-B4A1-0A0F37C8EA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>/home/georg/Beyond4P_Code/F0*.cpp</t>
   </si>
   <si>
-    <t>/home/georg/B4P_Docu_Maker/Outputs/</t>
-  </si>
-  <si>
     <t>system info[user name] = "rafael"</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>system info[user name] = "zur-b"</t>
   </si>
   <si>
-    <t>C:/Users/zur-b/OneDrive/Documents/Programme/georgzurbonsen.github.io/</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>Table Processing</t>
+  </si>
+  <si>
+    <t>../georgzurbonsen.github.io/</t>
+  </si>
+  <si>
+    <t>../Outputs/</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -585,12 +585,12 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -604,72 +604,72 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10">
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -688,13 +688,13 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -708,10 +708,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
@@ -742,13 +742,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
         <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
